--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/KENTUCKY_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/KENTUCKY_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1023"/>
+  <dimension ref="A1:D1017"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C9">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C25">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C26">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C30">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C41">
@@ -1213,7 +1213,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C64">
@@ -1226,7 +1226,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C65">
@@ -1278,7 +1278,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C69">
@@ -1330,7 +1330,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C73">
@@ -1460,7 +1460,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C83">
@@ -1473,7 +1473,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C84">
@@ -1842,7 +1842,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C112">
@@ -1972,7 +1972,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2016,7 +2016,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C125">
@@ -2198,7 +2198,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2307,7 +2307,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C147">
@@ -2460,7 +2460,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C158">
@@ -2655,7 +2655,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C173">
@@ -2720,7 +2720,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2751,7 +2751,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C180">
@@ -2764,7 +2764,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C181">
@@ -2816,7 +2816,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C185">
@@ -2881,7 +2881,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C190">
@@ -2946,7 +2946,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C195">
@@ -2972,7 +2972,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C197">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C198">
@@ -3076,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C205">
@@ -3141,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C210">
@@ -3154,7 +3154,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>San José del Rincón</t>
+          <t>San José Del Rincón</t>
         </is>
       </c>
       <c r="C211">
@@ -3167,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C212">
@@ -3271,7 +3271,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C220">
@@ -3336,7 +3336,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C225">
@@ -3401,7 +3401,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C230">
@@ -3414,7 +3414,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C231">
@@ -3440,7 +3440,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C233">
@@ -3536,7 +3536,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C240">
@@ -3627,7 +3627,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C247">
@@ -3666,7 +3666,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C250">
@@ -3796,7 +3796,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C260">
@@ -3822,7 +3822,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C262">
@@ -3835,7 +3835,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C263">
@@ -3861,7 +3861,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C265">
@@ -3887,7 +3887,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C267">
@@ -3926,7 +3926,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C270">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C274">
@@ -4022,7 +4022,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C277">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C278">
@@ -4074,7 +4074,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C281">
@@ -4100,7 +4100,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C283">
@@ -4113,7 +4113,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C284">
@@ -4139,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C286">
@@ -4152,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C287">
@@ -4165,7 +4165,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C288">
@@ -4217,7 +4217,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C292">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C293">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C296">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C302">
@@ -4360,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C303">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>José Joaquín de Herrera</t>
+          <t>José Joaquín De Herrera</t>
         </is>
       </c>
       <c r="C304">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C316">
@@ -4568,7 +4568,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C319">
@@ -4594,7 +4594,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C321">
@@ -4607,7 +4607,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C322">
@@ -4672,7 +4672,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C327">
@@ -4781,7 +4781,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C335">
@@ -4846,7 +4846,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C340">
@@ -4898,7 +4898,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C344">
@@ -4950,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C348">
@@ -5028,7 +5028,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C354">
@@ -5041,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C355">
@@ -5067,7 +5067,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C357">
@@ -5080,7 +5080,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C358">
@@ -5119,7 +5119,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C361">
@@ -5158,7 +5158,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C364">
@@ -5171,7 +5171,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C365">
@@ -5210,7 +5210,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C368">
@@ -5236,7 +5236,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C370">
@@ -5249,7 +5249,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C371">
@@ -5353,7 +5353,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C379">
@@ -5366,7 +5366,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C380">
@@ -5405,7 +5405,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C383">
@@ -5488,7 +5488,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C389">
@@ -5501,7 +5501,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C390">
@@ -5579,7 +5579,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C396">
@@ -5605,7 +5605,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C398">
@@ -5670,7 +5670,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C403">
@@ -5696,7 +5696,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C405">
@@ -5761,7 +5761,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C410">
@@ -5826,7 +5826,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C415">
@@ -5839,7 +5839,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C416">
@@ -5891,7 +5891,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C420">
@@ -5917,7 +5917,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C422">
@@ -5956,7 +5956,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C425">
@@ -5982,7 +5982,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -6117,7 +6117,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C437">
@@ -6650,7 +6650,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C478">
@@ -6824,7 +6824,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C491">
@@ -6915,7 +6915,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C498">
@@ -6941,7 +6941,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C500">
@@ -7198,7 +7198,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C519">
@@ -7224,7 +7224,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C521">
@@ -7268,7 +7268,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C524">
@@ -7385,7 +7385,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C533">
@@ -7398,7 +7398,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C534">
@@ -7411,7 +7411,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C535">
@@ -7424,7 +7424,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Huajuapan de León</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C536">
@@ -7437,7 +7437,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C537">
@@ -7476,7 +7476,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C540">
@@ -7489,7 +7489,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C541">
@@ -7502,7 +7502,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C542">
@@ -7580,7 +7580,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C548">
@@ -7658,7 +7658,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C554">
@@ -7749,7 +7749,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C561">
@@ -8191,7 +8191,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C595">
@@ -8308,7 +8308,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C604">
@@ -8776,7 +8776,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C640">
@@ -8815,7 +8815,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C643">
@@ -8828,7 +8828,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C644">
@@ -8841,7 +8841,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C645">
@@ -8854,7 +8854,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C646">
@@ -8867,7 +8867,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C647">
@@ -8880,7 +8880,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C648">
@@ -9041,7 +9041,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C660">
@@ -9067,7 +9067,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C662">
@@ -9171,7 +9171,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C670">
@@ -9327,7 +9327,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C682">
@@ -9340,7 +9340,7 @@
     <row r="683">
       <c r="B683" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C683">
@@ -9366,7 +9366,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C685">
@@ -9405,7 +9405,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C688">
@@ -9457,7 +9457,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C692">
@@ -9587,7 +9587,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C702">
@@ -9600,7 +9600,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C703">
@@ -9704,7 +9704,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C711">
@@ -9743,7 +9743,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C714">
@@ -9756,7 +9756,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C715">
@@ -9795,7 +9795,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C718">
@@ -9995,7 +9995,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C733">
@@ -10008,7 +10008,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C734">
@@ -10034,7 +10034,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C736">
@@ -10047,7 +10047,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C737">
@@ -10073,7 +10073,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C739">
@@ -10099,7 +10099,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C741">
@@ -10265,7 +10265,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C753">
@@ -10369,7 +10369,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C761">
@@ -10460,7 +10460,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C768">
@@ -10486,7 +10486,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C770">
@@ -10564,7 +10564,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C776">
@@ -10577,7 +10577,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C777">
@@ -10590,7 +10590,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C778">
@@ -10603,7 +10603,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C779">
@@ -10616,7 +10616,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C780">
@@ -11234,7 +11234,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C826">
@@ -11317,7 +11317,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C832">
@@ -11330,7 +11330,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C833">
@@ -11395,7 +11395,7 @@
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C838">
@@ -11447,7 +11447,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C842">
@@ -11499,7 +11499,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C846">
@@ -11577,7 +11577,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
@@ -11660,7 +11660,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C858">
@@ -11699,7 +11699,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C861">
@@ -11764,7 +11764,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C866">
@@ -11816,7 +11816,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C870">
@@ -11972,7 +11972,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C882">
@@ -11985,7 +11985,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C883">
@@ -12193,7 +12193,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C899">
@@ -12310,7 +12310,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C908">
@@ -12414,7 +12414,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C916">
@@ -12466,7 +12466,7 @@
     <row r="920">
       <c r="B920" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C920">
@@ -12583,7 +12583,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C929">
@@ -12596,7 +12596,7 @@
     <row r="930">
       <c r="B930" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C930">
@@ -12622,7 +12622,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C932">
@@ -12713,7 +12713,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C939">
@@ -12739,7 +12739,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C941">
@@ -12791,7 +12791,7 @@
     <row r="945">
       <c r="B945" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C945">
@@ -13347,7 +13347,7 @@
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C987">
@@ -13503,7 +13503,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C999">
@@ -13607,7 +13607,7 @@
     <row r="1007">
       <c r="B1007" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1007">
@@ -13685,7 +13685,7 @@
     <row r="1013">
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1013">
@@ -13737,7 +13737,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1017">
@@ -13745,41 +13745,6 @@
       </c>
       <c r="D1017">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1019">
-      <c r="A1019" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="1020">
-      <c r="A1020" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1021">
-      <c r="A1021" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1022">
-      <c r="A1022" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1023">
-      <c r="A1023" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>
